--- a/平成31年度/シースリーカップ/1.保護者案内/保護者案内.xlsx
+++ b/平成31年度/シースリーカップ/1.保護者案内/保護者案内.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\1.保護者案内\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,19 +155,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>カイサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【提出期限】　ＸＸ／ＸＸ日（Ｘ）</t>
-    <rPh sb="1" eb="3">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,6 +268,22 @@
   </si>
   <si>
     <t>先の予定となるため、不確定な方も多いことと存じますが、日程を調整いただき、たくさんの方から</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【提出期限】　６／２８日（金）</t>
+    <rPh sb="1" eb="3">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,38 +450,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,9 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -829,34 +830,34 @@
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
@@ -865,174 +866,174 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/平成31年度/シースリーカップ/1.保護者案内/保護者案内.xlsx
+++ b/平成31年度/シースリーカップ/1.保護者案内/保護者案内.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27900" windowHeight="12825" tabRatio="549"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27900" windowHeight="12825" tabRatio="549" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="案内" sheetId="3" r:id="rId1"/>
+    <sheet name="案内①" sheetId="3" r:id="rId1"/>
+    <sheet name="案内②" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">案内!$A$1:$F$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">案内①!$A$1:$F$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">案内②!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>ウィザーズ保護者各位</t>
     <rPh sb="5" eb="8">
@@ -283,6 +285,133 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シースリーカップでの、弁当注文、および、懇親会参加のご連絡を本用紙でお願いいたします。</t>
+    <rPh sb="11" eb="13">
+      <t>ベントウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コンシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎お弁当</t>
+    <rPh sb="2" eb="4">
+      <t>ベントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="HG丸ｺﾞｼｯｸM-PRO"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　　　　個</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ひとつ＠500です。　＊集金は後日行います。</t>
+    <rPh sb="13" eb="15">
+      <t>シュウキン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/20（土）　（東雲）</t>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シノノメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/21（日）（かどや）</t>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎懇親会</t>
+    <rPh sb="1" eb="4">
+      <t>コンシンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加者氏名</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　7/20(土)19時より　福田屋（谷内）　4,000円　　＊集金は後日行います。</t>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヤチ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +611,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,6 +932,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B10:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="1.1811023622047245" bottom="1.1811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,220 +1220,110 @@
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:5" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B10:E10"/>
+  <mergeCells count="1">
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
